--- a/data/Input data DKI Jakarta.xlsx
+++ b/data/Input data DKI Jakarta.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="615" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="390" yWindow="615" windowWidth="19815" windowHeight="7365" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="location" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="126">
   <si>
     <t>entity_type</t>
   </si>
@@ -347,6 +347,54 @@
   </si>
   <si>
     <t>Pemilihan Gubernur Jawa Barat 2017</t>
+  </si>
+  <si>
+    <t>Entity Type</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Value Type</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>Anies-Sandi</t>
+  </si>
+  <si>
+    <t>Gerindra, PKS, PAN</t>
+  </si>
+  <si>
+    <t>Ahok-Djarot</t>
+  </si>
+  <si>
+    <t>Partai</t>
+  </si>
+  <si>
+    <t>PDIP</t>
+  </si>
+  <si>
+    <t>Lambang</t>
+  </si>
+  <si>
+    <t>Banteng</t>
+  </si>
+  <si>
+    <t>Ketua Umum</t>
+  </si>
+  <si>
+    <t>Megawati</t>
+  </si>
+  <si>
+    <t>Golkar</t>
+  </si>
+  <si>
+    <t>Pohon Beringin</t>
   </si>
 </sst>
 </file>
@@ -401,7 +449,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,6 +460,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEAECF0"/>
         <bgColor rgb="FFEAECF0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6FA8DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FC5E8"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -487,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -522,6 +582,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -854,7 +929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+    <sheetView topLeftCell="A214" workbookViewId="0">
       <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
@@ -9484,4 +9559,218 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.25" thickBot="1">
+      <c r="B1" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="26.25" thickBot="1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="26.25" thickBot="1">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="17">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39" thickBot="1">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26.25" thickBot="1">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="26.25" thickBot="1">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="17">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="64.5" thickBot="1">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.5" thickBot="1">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="26.25" thickBot="1">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="26.25" thickBot="1">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>